--- a/Code/dev_2.xlsx
+++ b/Code/dev_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="6">
   <si>
     <t>DE</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>EDA_FG</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>QPSO</t>
   </si>
 </sst>
 </file>
@@ -47,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -57,14 +63,38 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -74,27 +104,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
-    <col min="4" max="4" width="10.7109375" customWidth="true"/>
+    <col min="1" max="1" width="2.7109375" customWidth="true"/>
+    <col min="2" max="2" width="3.7109375" customWidth="true"/>
+    <col min="3" max="3" width="7.7109375" customWidth="true"/>
+    <col min="4" max="4" width="6.7109375" customWidth="true"/>
+    <col min="5" max="5" width="4.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -110,6 +144,9 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -119,9 +156,12 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.10236504643146296</v>
+        <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
@@ -130,12 +170,15 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>8.2380567086094655e-14</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>449.36132838515346</v>
+        <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -147,9 +190,12 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.36005082481474932</v>
+        <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -161,23 +207,29 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.24674068926356</v>
+        <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>7.1399538623326185e-28</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.2139178349267323e-05</v>
+        <v>0</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -186,12 +238,15 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0.0017742948216885673</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
@@ -200,13 +255,16 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>5.4809504160640472</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4.3800066830548046</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>4.0021592697889092</v>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -222,6 +280,9 @@
       <c r="D10">
         <v>0</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -234,6 +295,9 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
     </row>
